--- a/_data/#3517_gebuehren.xlsx
+++ b/_data/#3517_gebuehren.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tgermer/Git/stg/_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git\stg\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B651B045-969D-BE4C-9F5A-9DA11F4F6ECF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33460" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -798,7 +797,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -823,7 +822,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -852,6 +851,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -859,6 +869,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -899,21 +922,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -928,25 +951,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1228,32 +1260,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P258"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="38.1640625" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="41" customWidth="1"/>
-    <col min="14" max="14" width="37.1640625" customWidth="1"/>
-    <col min="15" max="15" width="43.1640625" customWidth="1"/>
-    <col min="16" max="16" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="43.7109375" customWidth="1"/>
+    <col min="14" max="14" width="39.5703125" customWidth="1"/>
+    <col min="15" max="15" width="46" customWidth="1"/>
+    <col min="16" max="16" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1345,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -1387,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -1429,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
@@ -1473,7 +1505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1515,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1557,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
@@ -1599,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1641,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1683,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
@@ -1725,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1769,7 +1801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
@@ -1811,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1853,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
@@ -1897,7 +1929,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -1939,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>34</v>
       </c>
@@ -1983,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
@@ -2027,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
@@ -2069,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>36</v>
       </c>
@@ -2111,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>38</v>
       </c>
@@ -2155,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
@@ -2201,7 +2233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
@@ -2245,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>44</v>
       </c>
@@ -2289,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>44</v>
       </c>
@@ -2335,7 +2367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
@@ -2379,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>50</v>
       </c>
@@ -2421,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>50</v>
       </c>
@@ -2465,7 +2497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
@@ -2507,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
@@ -2549,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>50</v>
       </c>
@@ -2591,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
@@ -2633,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
@@ -2675,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
@@ -2719,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>55</v>
       </c>
@@ -2763,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>57</v>
       </c>
@@ -2805,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>57</v>
       </c>
@@ -2849,7 +2881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>57</v>
       </c>
@@ -2891,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>61</v>
       </c>
@@ -2933,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>61</v>
       </c>
@@ -2975,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>63</v>
       </c>
@@ -3017,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>63</v>
       </c>
@@ -3061,7 +3093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>63</v>
       </c>
@@ -3103,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>63</v>
       </c>
@@ -3145,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>63</v>
       </c>
@@ -3187,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>66</v>
       </c>
@@ -3231,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>66</v>
       </c>
@@ -3275,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>68</v>
       </c>
@@ -3317,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>68</v>
       </c>
@@ -3361,7 +3393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>68</v>
       </c>
@@ -3403,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>70</v>
       </c>
@@ -3445,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>70</v>
       </c>
@@ -3487,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>72</v>
       </c>
@@ -3531,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>72</v>
       </c>
@@ -3575,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>74</v>
       </c>
@@ -3617,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>74</v>
       </c>
@@ -3661,7 +3693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>74</v>
       </c>
@@ -3703,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>76</v>
       </c>
@@ -3745,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>76</v>
       </c>
@@ -3789,7 +3821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>76</v>
       </c>
@@ -3831,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>76</v>
       </c>
@@ -3873,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>76</v>
       </c>
@@ -3917,7 +3949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>76</v>
       </c>
@@ -3959,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>76</v>
       </c>
@@ -4003,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>76</v>
       </c>
@@ -4047,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>81</v>
       </c>
@@ -4089,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>81</v>
       </c>
@@ -4131,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>83</v>
       </c>
@@ -4175,7 +4207,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>88</v>
       </c>
@@ -4219,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>88</v>
       </c>
@@ -4263,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>90</v>
       </c>
@@ -4307,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>90</v>
       </c>
@@ -4351,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>92</v>
       </c>
@@ -4393,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>92</v>
       </c>
@@ -4435,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>94</v>
       </c>
@@ -4477,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>94</v>
       </c>
@@ -4519,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>96</v>
       </c>
@@ -4561,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>96</v>
       </c>
@@ -4603,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>96</v>
       </c>
@@ -4645,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>96</v>
       </c>
@@ -4687,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>99</v>
       </c>
@@ -4731,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>99</v>
       </c>
@@ -4775,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>101</v>
       </c>
@@ -4817,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>101</v>
       </c>
@@ -4859,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>103</v>
       </c>
@@ -4901,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>103</v>
       </c>
@@ -4945,7 +4977,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>103</v>
       </c>
@@ -4987,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>106</v>
       </c>
@@ -5029,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>106</v>
       </c>
@@ -5073,7 +5105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>106</v>
       </c>
@@ -5115,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>106</v>
       </c>
@@ -5157,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>111</v>
       </c>
@@ -5199,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>111</v>
       </c>
@@ -5243,7 +5275,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>111</v>
       </c>
@@ -5285,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>113</v>
       </c>
@@ -5327,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>113</v>
       </c>
@@ -5369,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>115</v>
       </c>
@@ -5411,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>115</v>
       </c>
@@ -5455,7 +5487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>115</v>
       </c>
@@ -5497,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>117</v>
       </c>
@@ -5539,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>117</v>
       </c>
@@ -5581,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>119</v>
       </c>
@@ -5623,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>119</v>
       </c>
@@ -5667,7 +5699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>119</v>
       </c>
@@ -5709,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>119</v>
       </c>
@@ -5753,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>119</v>
       </c>
@@ -5799,7 +5831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>119</v>
       </c>
@@ -5843,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>125</v>
       </c>
@@ -5885,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>125</v>
       </c>
@@ -5929,7 +5961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>125</v>
       </c>
@@ -5971,7 +6003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>127</v>
       </c>
@@ -6013,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>127</v>
       </c>
@@ -6055,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>129</v>
       </c>
@@ -6099,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>129</v>
       </c>
@@ -6143,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>131</v>
       </c>
@@ -6185,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>131</v>
       </c>
@@ -6229,7 +6261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>131</v>
       </c>
@@ -6271,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>133</v>
       </c>
@@ -6315,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>133</v>
       </c>
@@ -6359,7 +6391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>135</v>
       </c>
@@ -6401,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>135</v>
       </c>
@@ -6443,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>137</v>
       </c>
@@ -6485,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>137</v>
       </c>
@@ -6527,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>137</v>
       </c>
@@ -6571,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>137</v>
       </c>
@@ -6615,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>140</v>
       </c>
@@ -6657,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>140</v>
       </c>
@@ -6701,7 +6733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>140</v>
       </c>
@@ -6743,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>140</v>
       </c>
@@ -6785,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>140</v>
       </c>
@@ -6829,7 +6861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>140</v>
       </c>
@@ -6871,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>140</v>
       </c>
@@ -6915,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>140</v>
       </c>
@@ -6959,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>144</v>
       </c>
@@ -7001,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>144</v>
       </c>
@@ -7045,7 +7077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>144</v>
       </c>
@@ -7087,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>144</v>
       </c>
@@ -7129,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>144</v>
       </c>
@@ -7171,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>147</v>
       </c>
@@ -7213,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>147</v>
       </c>
@@ -7255,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>149</v>
       </c>
@@ -7299,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>149</v>
       </c>
@@ -7345,7 +7377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>149</v>
       </c>
@@ -7389,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>152</v>
       </c>
@@ -7433,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>152</v>
       </c>
@@ -7477,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>154</v>
       </c>
@@ -7519,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>154</v>
       </c>
@@ -7561,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>154</v>
       </c>
@@ -7603,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>154</v>
       </c>
@@ -7645,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>157</v>
       </c>
@@ -7689,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>157</v>
       </c>
@@ -7733,7 +7765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>157</v>
       </c>
@@ -7779,7 +7811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>162</v>
       </c>
@@ -7821,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>162</v>
       </c>
@@ -7865,7 +7897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>162</v>
       </c>
@@ -7907,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>162</v>
       </c>
@@ -7951,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>162</v>
       </c>
@@ -7997,7 +8029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>162</v>
       </c>
@@ -8041,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>162</v>
       </c>
@@ -8085,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>162</v>
       </c>
@@ -8131,7 +8163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>162</v>
       </c>
@@ -8175,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>167</v>
       </c>
@@ -8217,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>167</v>
       </c>
@@ -8261,7 +8293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>167</v>
       </c>
@@ -8303,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>169</v>
       </c>
@@ -8347,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>169</v>
       </c>
@@ -8391,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>169</v>
       </c>
@@ -8437,7 +8469,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>173</v>
       </c>
@@ -8479,7 +8511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>173</v>
       </c>
@@ -8521,7 +8553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>175</v>
       </c>
@@ -8563,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>175</v>
       </c>
@@ -8605,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>177</v>
       </c>
@@ -8647,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>177</v>
       </c>
@@ -8691,7 +8723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>177</v>
       </c>
@@ -8733,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>179</v>
       </c>
@@ -8775,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>179</v>
       </c>
@@ -8817,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>181</v>
       </c>
@@ -8859,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>181</v>
       </c>
@@ -8901,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>183</v>
       </c>
@@ -8943,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>183</v>
       </c>
@@ -8987,7 +9019,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>183</v>
       </c>
@@ -9029,7 +9061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>186</v>
       </c>
@@ -9073,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>186</v>
       </c>
@@ -9119,7 +9151,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>186</v>
       </c>
@@ -9163,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>189</v>
       </c>
@@ -9205,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>189</v>
       </c>
@@ -9247,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>191</v>
       </c>
@@ -9291,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>191</v>
       </c>
@@ -9335,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>193</v>
       </c>
@@ -9377,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>193</v>
       </c>
@@ -9419,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>195</v>
       </c>
@@ -9463,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>195</v>
       </c>
@@ -9509,7 +9541,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>195</v>
       </c>
@@ -9553,7 +9585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>199</v>
       </c>
@@ -9595,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>199</v>
       </c>
@@ -9639,7 +9671,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>199</v>
       </c>
@@ -9681,7 +9713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>202</v>
       </c>
@@ -9723,7 +9755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>202</v>
       </c>
@@ -9765,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>204</v>
       </c>
@@ -9807,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>204</v>
       </c>
@@ -9851,7 +9883,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>204</v>
       </c>
@@ -9893,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>206</v>
       </c>
@@ -9935,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>206</v>
       </c>
@@ -9977,7 +10009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>208</v>
       </c>
@@ -10019,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>208</v>
       </c>
@@ -10063,7 +10095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>208</v>
       </c>
@@ -10105,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>210</v>
       </c>
@@ -10149,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>210</v>
       </c>
@@ -10195,7 +10227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>210</v>
       </c>
@@ -10239,7 +10271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>214</v>
       </c>
@@ -10281,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>214</v>
       </c>
@@ -10323,7 +10355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>216</v>
       </c>
@@ -10365,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>216</v>
       </c>
@@ -10409,7 +10441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>216</v>
       </c>
@@ -10451,7 +10483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>218</v>
       </c>
@@ -10493,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>218</v>
       </c>
@@ -10537,7 +10569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>218</v>
       </c>
@@ -10579,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>222</v>
       </c>
@@ -10623,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>222</v>
       </c>
@@ -10667,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>224</v>
       </c>
@@ -10709,7 +10741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>224</v>
       </c>
@@ -10751,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>226</v>
       </c>
@@ -10795,7 +10827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>226</v>
       </c>
@@ -10841,7 +10873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>226</v>
       </c>
@@ -10885,7 +10917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>230</v>
       </c>
@@ -10927,7 +10959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>230</v>
       </c>
@@ -10969,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>232</v>
       </c>
@@ -11011,7 +11043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>232</v>
       </c>
@@ -11055,7 +11087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>232</v>
       </c>
@@ -11097,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>232</v>
       </c>
@@ -11139,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>232</v>
       </c>
@@ -11181,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>235</v>
       </c>
@@ -11225,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>235</v>
       </c>
@@ -11269,7 +11301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>235</v>
       </c>
@@ -11315,7 +11347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>238</v>
       </c>
@@ -11359,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>238</v>
       </c>
@@ -11403,7 +11435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>238</v>
       </c>
@@ -11449,7 +11481,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>241</v>
       </c>
@@ -11491,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>241</v>
       </c>
@@ -11535,7 +11567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>241</v>
       </c>
@@ -11577,7 +11609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>241</v>
       </c>
@@ -11619,7 +11651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>241</v>
       </c>
@@ -11663,7 +11695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>241</v>
       </c>
@@ -11705,7 +11737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>244</v>
       </c>
@@ -11747,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>244</v>
       </c>
@@ -11791,7 +11823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>244</v>
       </c>
@@ -11833,7 +11865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>246</v>
       </c>
@@ -11877,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>246</v>
       </c>
@@ -11921,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>248</v>
       </c>
@@ -11963,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>248</v>
       </c>
@@ -12007,7 +12039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>248</v>
       </c>
@@ -12049,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>248</v>
       </c>
@@ -12091,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
         <v>248</v>
       </c>
@@ -12133,7 +12165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>251</v>
       </c>
@@ -12177,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>251</v>
       </c>
@@ -12223,7 +12255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>251</v>
       </c>
@@ -12267,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>254</v>
       </c>
@@ -12309,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>254</v>
       </c>
@@ -12350,6 +12382,24 @@
       <c r="P258" s="16">
         <v>0</v>
       </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A259" s="17"/>
+      <c r="B259" s="17"/>
+      <c r="C259" s="17"/>
+      <c r="D259" s="17"/>
+      <c r="E259" s="17"/>
+      <c r="F259" s="17"/>
+      <c r="G259" s="17"/>
+      <c r="H259" s="17"/>
+      <c r="I259" s="17"/>
+      <c r="J259" s="17"/>
+      <c r="K259" s="17"/>
+      <c r="L259" s="18"/>
+      <c r="M259" s="17"/>
+      <c r="N259" s="17"/>
+      <c r="O259" s="17"/>
+      <c r="P259" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/_data/#3517_gebuehren.xlsx
+++ b/_data/#3517_gebuehren.xlsx
@@ -1269,8 +1269,7 @@
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
@@ -2633,7 +2632,9 @@
       <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
       <c r="E32" s="7">
         <v>213</v>
       </c>
@@ -2675,7 +2676,9 @@
       <c r="C33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
       <c r="E33" s="7">
         <v>213</v>
       </c>
@@ -2805,7 +2808,9 @@
       <c r="C36" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7">
+        <v>6</v>
+      </c>
       <c r="E36" s="7">
         <v>115</v>
       </c>
@@ -2847,7 +2852,9 @@
       <c r="C37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="7">
+        <v>6</v>
+      </c>
       <c r="E37" s="7">
         <v>115</v>
       </c>
@@ -2891,7 +2898,9 @@
       <c r="C38" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="7">
+        <v>6</v>
+      </c>
       <c r="E38" s="7">
         <v>115</v>
       </c>
@@ -4477,7 +4486,9 @@
       <c r="C75" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D75" s="7"/>
+      <c r="D75" s="7">
+        <v>1</v>
+      </c>
       <c r="E75" s="7">
         <v>217</v>
       </c>
@@ -4519,7 +4530,9 @@
       <c r="C76" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="7"/>
+      <c r="D76" s="7">
+        <v>1</v>
+      </c>
       <c r="E76" s="7">
         <v>217</v>
       </c>
@@ -4730,7 +4743,7 @@
         <v>100</v>
       </c>
       <c r="D81" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E81" s="7">
         <v>119</v>
@@ -4774,7 +4787,7 @@
         <v>100</v>
       </c>
       <c r="D82" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E82" s="7">
         <v>119</v>
@@ -7298,7 +7311,7 @@
         <v>150</v>
       </c>
       <c r="D141" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E141" s="7">
         <v>219</v>
@@ -7342,7 +7355,7 @@
         <v>150</v>
       </c>
       <c r="D142" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E142" s="7">
         <v>219</v>
@@ -7388,7 +7401,7 @@
         <v>150</v>
       </c>
       <c r="D143" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E143" s="7">
         <v>219</v>
@@ -9595,7 +9608,9 @@
       <c r="C194" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D194" s="7"/>
+      <c r="D194" s="7">
+        <v>6</v>
+      </c>
       <c r="E194" s="7">
         <v>217</v>
       </c>
@@ -9637,7 +9652,9 @@
       <c r="C195" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D195" s="7"/>
+      <c r="D195" s="7">
+        <v>6</v>
+      </c>
       <c r="E195" s="7">
         <v>217</v>
       </c>
@@ -9681,7 +9698,9 @@
       <c r="C196" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D196" s="7"/>
+      <c r="D196" s="7">
+        <v>6</v>
+      </c>
       <c r="E196" s="7">
         <v>217</v>
       </c>
@@ -10554,7 +10573,7 @@
         <v>24</v>
       </c>
       <c r="L216" s="9">
-        <v>0</v>
+        <v>9750</v>
       </c>
       <c r="M216" s="7" t="s">
         <v>220</v>
@@ -12309,7 +12328,9 @@
       <c r="C257" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D257" s="7"/>
+      <c r="D257" s="7">
+        <v>2</v>
+      </c>
       <c r="E257" s="7">
         <v>210</v>
       </c>
@@ -12351,7 +12372,9 @@
       <c r="C258" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D258" s="11"/>
+      <c r="D258" s="11">
+        <v>2</v>
+      </c>
       <c r="E258" s="11">
         <v>210</v>
       </c>
